--- a/biology/Botanique/Berberis_gagnepainii/Berberis_gagnepainii.xlsx
+++ b/biology/Botanique/Berberis_gagnepainii/Berberis_gagnepainii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berbéris de Gagnepain ou épine-bleue de Gagnepain (Berberis gagnepainii) est un arbuste de la famille des Berbéridacées originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste pouvant atteindre 3 m de haut, aux longues épines trifurquées (comme Berberis julianae).
 Ses feuilles sont lancéolées, persistantes, bordées de petites dents épineuses, d'un vert soutenu.
@@ -553,7 +567,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce a été dédiée à François Gagnepain, botaniste français.
 Elle a été hybridée avec Berberis verruculosa : Berberis ×chenaultii Chenault (1933), hybride existant uniquement en culture, souvent commercialisé en variété horticole sous le nom de Berberis gagnepainii 'Chenaultii'.
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine : Guozhou, Hubei, Sichuan et Yunnan. Elle est maintenant largement répandue dans l'ensemble du monde à climat tempéré.
 </t>
@@ -624,7 +642,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Son utilisation est purement ornementale et de nombreuses variétés horticoles, souvent de tailles plus réduites, ont été obtenues et dont les plus connues sont les suivantes :
 Berberis gagnepainii 'Fernspray' au feuillage virant au pourpre en hiver
